--- a/result/with_base/124/arousal/s23_8.xlsx
+++ b/result/with_base/124/arousal/s23_8.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7600000202655792</v>
+        <v>0.7857142984867096</v>
       </c>
       <c r="C2" t="n">
-        <v>41694.861328125</v>
+        <v>11303.28271484375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7867045456712897</v>
+        <v>0.7731092431965996</v>
       </c>
       <c r="E2" t="n">
-        <v>41693.22869318182</v>
+        <v>11303.29026884191</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.824999988079071</v>
+        <v>0.8448660671710968</v>
       </c>
       <c r="C3" t="n">
-        <v>40911.47265625</v>
+        <v>11006.755859375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8784090876579285</v>
+        <v>0.8505777295897988</v>
       </c>
       <c r="E3" t="n">
-        <v>40909.30113636364</v>
+        <v>11006.67451746324</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8574999868869781</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C4" t="n">
-        <v>40137.453125</v>
+        <v>10713.06982421875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9080681855028326</v>
+        <v>0.9108455882352942</v>
       </c>
       <c r="E4" t="n">
-        <v>40135.96732954546</v>
+        <v>10712.92618336397</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C5" t="n">
-        <v>39372.701171875</v>
+        <v>10425.75048828125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9354545474052429</v>
+        <v>0.9321822489009184</v>
       </c>
       <c r="E5" t="n">
-        <v>39371.24751420454</v>
+        <v>10425.48971737132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9174999892711639</v>
+        <v>0.9151785671710968</v>
       </c>
       <c r="C6" t="n">
-        <v>38621.974609375</v>
+        <v>10144.17529296875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9504545439373363</v>
+        <v>0.9297531527631423</v>
       </c>
       <c r="E6" t="n">
-        <v>38619.65092329546</v>
+        <v>10143.61483226103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C7" t="n">
-        <v>37880.697265625</v>
+        <v>9866.8623046875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9669318144971674</v>
+        <v>0.9547662805108463</v>
       </c>
       <c r="E7" t="n">
-        <v>37879.25461647727</v>
+        <v>9866.123736213236</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37153.46484375</v>
+        <v>9595.51171875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9619318192655389</v>
+        <v>0.9619222704102012</v>
       </c>
       <c r="E8" t="n">
-        <v>37151.43501420454</v>
+        <v>9595.080997242647</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36437.935546875</v>
+        <v>9330.66455078125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.973068193955855</v>
+        <v>0.9617253156269298</v>
       </c>
       <c r="E9" t="n">
-        <v>36435.58806818182</v>
+        <v>9330.115521599264</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C10" t="n">
-        <v>35736.359375</v>
+        <v>9071.37548828125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9617045467550104</v>
+        <v>0.9730173314318937</v>
       </c>
       <c r="E10" t="n">
-        <v>35732.609375</v>
+        <v>9070.677389705883</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35042.83984375</v>
+        <v>8818.4599609375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9838636517524719</v>
+        <v>0.9710477941176471</v>
       </c>
       <c r="E11" t="n">
-        <v>35040.86044034091</v>
+        <v>8817.586741727941</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C12" t="n">
-        <v>34363.904296875</v>
+        <v>8571.46240234375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.982727283781225</v>
+        <v>0.9665835079024819</v>
       </c>
       <c r="E12" t="n">
-        <v>34361.99112215909</v>
+        <v>8570.527975643383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.94140625</v>
       </c>
       <c r="C13" t="n">
-        <v>33697.869140625</v>
+        <v>8330.01416015625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9860227378931913</v>
+        <v>0.9825367647058824</v>
       </c>
       <c r="E13" t="n">
-        <v>33695.23046875</v>
+        <v>8329.20369944853</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C14" t="n">
-        <v>33042.8359375</v>
+        <v>8094.451416015625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E14" t="n">
-        <v>33040.43785511364</v>
+        <v>8093.885770909927</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.94140625</v>
       </c>
       <c r="C15" t="n">
-        <v>32399.9541015625</v>
+        <v>7864.987548828125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9886363744735718</v>
+        <v>0.9866071413545048</v>
       </c>
       <c r="E15" t="n">
-        <v>32397.4296875</v>
+        <v>7864.252642463235</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9375</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31767.986328125</v>
+        <v>7641.063232421875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9912500056353483</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E16" t="n">
-        <v>31766.03338068182</v>
+        <v>7640.408892463235</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C17" t="n">
-        <v>31148.21875</v>
+        <v>7422.76123046875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9909090995788574</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E17" t="n">
-        <v>31146.24396306818</v>
+        <v>7422.135052849265</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C18" t="n">
-        <v>30540.3173828125</v>
+        <v>7209.935546875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9860227324745872</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E18" t="n">
-        <v>30537.82688210227</v>
+        <v>7209.401798023897</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C19" t="n">
-        <v>29942.478515625</v>
+        <v>7002.662109375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E19" t="n">
-        <v>29940.34676846591</v>
+        <v>7002.075855928309</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9375</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C20" t="n">
-        <v>29355.83203125</v>
+        <v>6800.681884765625</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E20" t="n">
-        <v>29353.94886363636</v>
+        <v>6800.071748621323</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C21" t="n">
-        <v>28780.3623046875</v>
+        <v>6603.908203125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E21" t="n">
-        <v>28778.37624289773</v>
+        <v>6603.315400965073</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C22" t="n">
-        <v>28215.998046875</v>
+        <v>6412.286376953125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E22" t="n">
-        <v>28213.56640625</v>
+        <v>6411.663602941177</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9324999749660492</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27660.763671875</v>
+        <v>6225.567138671875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9962578766486224</v>
       </c>
       <c r="E23" t="n">
-        <v>27659.04829545454</v>
+        <v>6224.976849724265</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C24" t="n">
-        <v>27116.8916015625</v>
+        <v>6043.84375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9925157568034004</v>
       </c>
       <c r="E24" t="n">
-        <v>27114.91583806818</v>
+        <v>6043.231014476103</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C25" t="n">
-        <v>26582.283203125</v>
+        <v>5866.78759765625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E25" t="n">
-        <v>26580.93732244318</v>
+        <v>5866.223431755515</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C26" t="n">
-        <v>26058.2783203125</v>
+        <v>5694.424072265625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E26" t="n">
-        <v>26056.82723721591</v>
+        <v>5693.921042049632</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25544.6103515625</v>
+        <v>5526.629150390625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E27" t="n">
-        <v>25542.50426136364</v>
+        <v>5526.16064453125</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C28" t="n">
-        <v>25038.9501953125</v>
+        <v>5363.23681640625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9971590909090909</v>
+        <v>0.9986213235294118</v>
       </c>
       <c r="E28" t="n">
-        <v>25037.70454545454</v>
+        <v>5362.832059972427</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C29" t="n">
-        <v>24543.5048828125</v>
+        <v>5204.204833984375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E29" t="n">
-        <v>24542.33185369318</v>
+        <v>5203.886374080882</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C30" t="n">
-        <v>24056.9736328125</v>
+        <v>5049.520751953125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E30" t="n">
-        <v>24056.24715909091</v>
+        <v>5049.21964039522</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C31" t="n">
-        <v>23580.0986328125</v>
+        <v>4898.94189453125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E31" t="n">
-        <v>23579.26207386364</v>
+        <v>4898.681123621323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23112.8310546875</v>
+        <v>4752.4736328125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E32" t="n">
-        <v>23111.20099431818</v>
+        <v>4752.192985983456</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C33" t="n">
-        <v>22652.9892578125</v>
+        <v>4609.9765625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9948135509210474</v>
       </c>
       <c r="E33" t="n">
-        <v>22651.87109375</v>
+        <v>4609.682933134191</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C34" t="n">
-        <v>22202.833984375</v>
+        <v>4471.332763671875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E34" t="n">
-        <v>22201.203125</v>
+        <v>4471.056870404412</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21760.212890625</v>
+        <v>4336.4990234375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E35" t="n">
-        <v>21758.97052556818</v>
+        <v>4336.209817325368</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9375</v>
+        <v>0.9832589328289032</v>
       </c>
       <c r="C36" t="n">
-        <v>21326.412109375</v>
+        <v>4205.2177734375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E36" t="n">
-        <v>21325.05859375</v>
+        <v>4205.03377757353</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C37" t="n">
-        <v>20900.3291015625</v>
+        <v>4077.645629882812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.996651786215165</v>
       </c>
       <c r="E37" t="n">
-        <v>20899.24591619318</v>
+        <v>4077.443488625919</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9375</v>
+        <v>0.9704241156578064</v>
       </c>
       <c r="C38" t="n">
-        <v>20482.728515625</v>
+        <v>3953.524658203125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9990808823529411</v>
       </c>
       <c r="E38" t="n">
-        <v>20481.42950994318</v>
+        <v>3953.334989659927</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C39" t="n">
-        <v>20072.2958984375</v>
+        <v>3832.849853515625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9977022058823529</v>
       </c>
       <c r="E39" t="n">
-        <v>20071.45809659091</v>
+        <v>3832.649557674632</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9715401828289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19670.0634765625</v>
+        <v>3715.4697265625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9994318160143766</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E40" t="n">
-        <v>19669.23508522727</v>
+        <v>3715.307746438419</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9871651828289032</v>
       </c>
       <c r="C41" t="n">
-        <v>19275.83203125</v>
+        <v>3601.347900390625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E41" t="n">
-        <v>19274.58025568182</v>
+        <v>3601.191822725184</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9787946343421936</v>
       </c>
       <c r="C42" t="n">
-        <v>18888.0322265625</v>
+        <v>3490.402221679688</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E42" t="n">
-        <v>18887.32421875</v>
+        <v>3490.260325712316</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C43" t="n">
-        <v>18508.412109375</v>
+        <v>3382.566528320312</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9975000023841858</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E43" t="n">
-        <v>18507.34499289773</v>
+        <v>3382.391299977022</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18135.857421875</v>
+        <v>3277.763305664062</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E44" t="n">
-        <v>18134.56960227273</v>
+        <v>3277.564797794118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17770.150390625</v>
+        <v>3175.854125976562</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E45" t="n">
-        <v>17768.82120028409</v>
+        <v>3175.644473805147</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C46" t="n">
-        <v>17410.9326171875</v>
+        <v>3076.796264648438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9994318160143766</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E46" t="n">
-        <v>17409.98384232954</v>
+        <v>3076.583955652573</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17059.10546875</v>
+        <v>2980.54931640625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E47" t="n">
-        <v>17057.92365056818</v>
+        <v>2980.335047104779</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16713.095703125</v>
+        <v>2886.931640625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9989772709933195</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E48" t="n">
-        <v>16712.50142045454</v>
+        <v>2886.772863051471</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C49" t="n">
-        <v>16374.64599609375</v>
+        <v>2795.994750976562</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9976365531192106</v>
       </c>
       <c r="E49" t="n">
-        <v>16373.62491122159</v>
+        <v>2795.858283547794</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9743303656578064</v>
       </c>
       <c r="C50" t="n">
-        <v>16042.04931640625</v>
+        <v>2707.694946289062</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9953387590015635</v>
       </c>
       <c r="E50" t="n">
-        <v>16041.17817826705</v>
+        <v>2707.539579503677</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15715.92919921875</v>
+        <v>2621.894165039062</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E51" t="n">
-        <v>15715.02254971591</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15395.7646484375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15395.03382457386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15081.90283203125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15081.1142578125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14773.95556640625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14773.14248934659</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14471.7509765625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14471.02308238636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14175.47802734375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14174.6708984375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13884.69140625</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13883.96413352273</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13599.4736328125</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13598.76091974432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13319.58984375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13318.99778053977</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13045.4189453125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13044.57705965909</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12775.8662109375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12775.41015625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9224999845027924</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12512.21142578125</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12511.38121448864</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12253.02294921875</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12252.40767045455</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11999.134765625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11998.38387784091</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11749.80859375</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11749.25008877841</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11505.318359375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11504.89462002841</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11265.716796875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11265.21457741477</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11030.5673828125</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11030.14817116477</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10800.15673828125</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10799.626953125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10573.7744140625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10573.52982954545</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10352.1708984375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10351.80060369318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10134.734375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10134.36106178977</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9921.5234375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9921.12606534091</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.949999988079071</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9712.431640625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9712.001953125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9507.3291015625</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9506.937855113636</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9306.14404296875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9305.86141690341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9109.1552734375</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9108.695578835228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8915.7451171875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8915.353959517046</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8726.19287109375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8725.772727272728</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8540.287109375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8539.901722301136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8358.154296875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8357.665216619318</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7611111111111111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8722222222222222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8722222222222222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9111111111111111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9111111111111111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1166666666666667</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9888888888888889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9888888888888889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9782407407407407</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6166666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8833333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8833333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.08888888888888889</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2055555555555555</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2055555555555555</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9836111111111111</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>2621.736184512868</v>
       </c>
     </row>
   </sheetData>
